--- a/doors_detection_long_term/scripts/results/detr_complete_metrics_real_data_different_conditions_0.5.xlsx
+++ b/doors_detection_long_term/scripts/results/detr_complete_metrics_real_data_different_conditions_0.5.xlsx
@@ -541,27 +541,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>219</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>108</t>
         </is>
       </c>
     </row>
@@ -606,27 +606,27 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>155</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -671,27 +671,27 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>167</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -736,27 +736,27 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>167</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>119</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -866,27 +866,27 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -931,27 +931,27 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -1126,27 +1126,27 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>170</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -1191,27 +1191,27 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>236</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1256,19 +1256,19 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>133</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>0</t>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>178</t>
         </is>
       </c>
     </row>
@@ -1386,27 +1386,27 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>326</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -1451,12 +1451,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>296</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -1581,27 +1581,27 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1646,27 +1646,27 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>193</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>215</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -1906,27 +1906,27 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>274</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>52</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -1971,27 +1971,27 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>66</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>248</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -2101,17 +2101,17 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>316</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>153</t>
         </is>
       </c>
     </row>
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>191</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>149</t>
         </is>
       </c>
     </row>
@@ -2231,17 +2231,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>328</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>183</t>
         </is>
       </c>
     </row>
@@ -2296,22 +2296,22 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>229</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2361,27 +2361,27 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>292</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -2426,27 +2426,27 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>262</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>192</t>
         </is>
       </c>
     </row>
@@ -2491,27 +2491,27 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>319</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -2556,27 +2556,27 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>248</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>275</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2631,17 +2631,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -2691,22 +2691,22 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>231</t>
         </is>
       </c>
     </row>
@@ -2751,27 +2751,27 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>279</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2816,12 +2816,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>253</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>221</t>
         </is>
       </c>
     </row>
@@ -2886,12 +2886,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -2946,27 +2946,27 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>255</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>218</t>
         </is>
       </c>
     </row>
@@ -3016,22 +3016,22 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -3076,17 +3076,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>282</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>43</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>190</t>
         </is>
       </c>
     </row>
@@ -3141,17 +3141,17 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>113</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -3206,27 +3206,27 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>183</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>239</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>191</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>129</t>
         </is>
       </c>
     </row>
@@ -3336,17 +3336,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>143</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>116</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>137</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -3466,17 +3466,17 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>186</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -3531,27 +3531,27 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>235</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -3601,12 +3601,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>148</t>
         </is>
       </c>
     </row>
@@ -3661,27 +3661,27 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -3726,27 +3726,27 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>178</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -3791,27 +3791,27 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>246</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>140</t>
         </is>
       </c>
     </row>
@@ -3856,17 +3856,17 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>174</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>239</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -3986,12 +3986,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>198</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -4051,27 +4051,27 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>272</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -4116,27 +4116,27 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>245</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>149</t>
         </is>
       </c>
     </row>
@@ -4181,17 +4181,17 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>261</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -4246,17 +4246,17 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>227</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>211</t>
         </is>
       </c>
     </row>
@@ -4311,27 +4311,27 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>302</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -4376,27 +4376,27 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
           <t>215</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>225</t>
         </is>
       </c>
     </row>
@@ -4441,27 +4441,27 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -4506,27 +4506,27 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>256</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>199</t>
         </is>
       </c>
     </row>
@@ -4571,27 +4571,27 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>345</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -4636,27 +4636,27 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>264</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>193</t>
         </is>
       </c>
     </row>
@@ -4701,17 +4701,17 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>285</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -4766,17 +4766,17 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>229</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>203</t>
         </is>
       </c>
     </row>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>331</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>244</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4906,12 +4906,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -4966,12 +4966,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5026,27 +5026,27 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>266</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>227</t>
         </is>
       </c>
     </row>
@@ -5096,22 +5096,22 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -5156,27 +5156,27 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>247</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -5221,27 +5221,27 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>167</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>233</t>
         </is>
       </c>
     </row>
@@ -5286,17 +5286,17 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>388</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>103</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>156</t>
         </is>
       </c>
     </row>
@@ -5351,27 +5351,27 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>208</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>341</t>
         </is>
       </c>
     </row>
@@ -5416,17 +5416,17 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>383</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>75</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -5481,17 +5481,17 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>219</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>222</t>
         </is>
       </c>
     </row>
@@ -5546,27 +5546,27 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>410</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>70</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -5611,27 +5611,27 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>209</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>191</t>
         </is>
       </c>
     </row>
@@ -5676,27 +5676,27 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>442</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -5741,27 +5741,27 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>190</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>342</t>
         </is>
       </c>
     </row>
@@ -5806,17 +5806,17 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>371</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>77</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -5871,27 +5871,27 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>201</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>252</t>
         </is>
       </c>
     </row>
@@ -5936,27 +5936,27 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>383</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -6001,27 +6001,27 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>239</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>159</t>
         </is>
       </c>
     </row>
@@ -6066,17 +6066,17 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>451</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>238</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6141,17 +6141,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>156</t>
         </is>
       </c>
     </row>
@@ -6196,27 +6196,27 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>462</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6271,17 +6271,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>266</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6336,17 +6336,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -6391,17 +6391,17 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -6456,27 +6456,27 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>294</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>74</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>163</t>
         </is>
       </c>
     </row>
@@ -6521,27 +6521,27 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>149</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>151</t>
         </is>
       </c>
     </row>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>327</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>177</t>
         </is>
       </c>
     </row>
@@ -6651,17 +6651,17 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>155</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6721,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6786,22 +6786,22 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>137</t>
         </is>
       </c>
     </row>
@@ -6846,27 +6846,27 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>318</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>80</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -6911,27 +6911,27 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>153</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>190</t>
         </is>
       </c>
     </row>
@@ -6986,12 +6986,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>52</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -7041,12 +7041,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>178</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>179</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>377</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>95</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>138</t>
         </is>
       </c>
     </row>
@@ -7171,27 +7171,27 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>195</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>156</t>
         </is>
       </c>
     </row>
@@ -7236,27 +7236,27 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>410</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -7301,27 +7301,27 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>195</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>272</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>357</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7376,17 +7376,17 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>85</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -7431,27 +7431,27 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>190</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>255</t>
         </is>
       </c>
     </row>
@@ -7496,27 +7496,27 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>403</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>65</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -7561,22 +7561,22 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>190</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -7626,17 +7626,17 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>436</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -7691,27 +7691,27 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>213</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>37</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -7756,27 +7756,27 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>450</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -7821,27 +7821,27 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>188</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>213</t>
         </is>
       </c>
     </row>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>372</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>54</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -7951,17 +7951,17 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -8016,27 +8016,27 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>432</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>61</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>146</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>247</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -8146,17 +8146,17 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>455</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>78</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -8211,27 +8211,27 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>237</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>166</t>
         </is>
       </c>
     </row>
@@ -8276,27 +8276,27 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>466</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>79</t>
         </is>
       </c>
     </row>
